--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Inha</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.48706</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>2.373408095208889</v>
+        <v>2.325205119953333</v>
       </c>
       <c r="R2">
-        <v>21.36067285688</v>
+        <v>20.92684607958</v>
       </c>
       <c r="S2">
-        <v>0.2662829816142095</v>
+        <v>0.06936068153051113</v>
       </c>
       <c r="T2">
-        <v>0.2662829816142095</v>
+        <v>0.06936068153051114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>0.48706</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,13 +617,13 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
         <v>4.397205117713334</v>
@@ -632,10 +632,10 @@
         <v>39.57484605942</v>
       </c>
       <c r="S3">
-        <v>0.4933415757187404</v>
+        <v>0.1311682746510422</v>
       </c>
       <c r="T3">
-        <v>0.4933415757187404</v>
+        <v>0.1311682746510422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.48706</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2351552968361266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>2.142491488028889</v>
+        <v>1.160792293251111</v>
       </c>
       <c r="R4">
-        <v>19.28242339226</v>
+        <v>10.44713063926</v>
       </c>
       <c r="S4">
-        <v>0.2403754426670502</v>
+        <v>0.03462634065457326</v>
       </c>
       <c r="T4">
-        <v>0.2403754426670502</v>
+        <v>0.03462634065457326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.5280556666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.584167</v>
+      </c>
+      <c r="I5">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="J5">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>14.321881</v>
+      </c>
+      <c r="N5">
+        <v>42.965643</v>
+      </c>
+      <c r="O5">
+        <v>0.2949569176783066</v>
+      </c>
+      <c r="P5">
+        <v>0.2949569176783066</v>
+      </c>
+      <c r="Q5">
+        <v>7.562750419375667</v>
+      </c>
+      <c r="R5">
+        <v>68.064753774381</v>
+      </c>
+      <c r="S5">
+        <v>0.2255962361477954</v>
+      </c>
+      <c r="T5">
+        <v>0.2255962361477954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.5280556666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.584167</v>
+      </c>
+      <c r="I6">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="J6">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>27.084169</v>
+      </c>
+      <c r="N6">
+        <v>81.25250700000001</v>
+      </c>
+      <c r="O6">
+        <v>0.557794259435499</v>
+      </c>
+      <c r="P6">
+        <v>0.557794259435499</v>
+      </c>
+      <c r="Q6">
+        <v>14.30194891740767</v>
+      </c>
+      <c r="R6">
+        <v>128.717540256669</v>
+      </c>
+      <c r="S6">
+        <v>0.4266259847844568</v>
+      </c>
+      <c r="T6">
+        <v>0.4266259847844568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.5280556666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.584167</v>
+      </c>
+      <c r="I7">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="J7">
+        <v>0.7648447031638734</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.149790333333333</v>
+      </c>
+      <c r="N7">
+        <v>21.449371</v>
+      </c>
+      <c r="O7">
+        <v>0.1472488228861944</v>
+      </c>
+      <c r="P7">
+        <v>0.1472488228861943</v>
+      </c>
+      <c r="Q7">
+        <v>3.775487300995222</v>
+      </c>
+      <c r="R7">
+        <v>33.979385708957</v>
+      </c>
+      <c r="S7">
+        <v>0.1126224822316211</v>
+      </c>
+      <c r="T7">
+        <v>0.1126224822316211</v>
       </c>
     </row>
   </sheetData>
